--- a/data/takiphedeffiyat_holding.xlsx
+++ b/data/takiphedeffiyat_holding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uguraskar\Documents\Github\pjournal_mef04-uguraskar\mef04-uguraskar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456C1C15-7CD6-4205-B577-864987BB1A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE190D4-6465-4819-8BAB-31E70FD80B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="3735" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isyatirim" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>AGHOL</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>26.11.2020</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>ALARK</t>
   </si>
   <si>
-    <t>TUT</t>
-  </si>
-  <si>
     <t>KCHOL</t>
   </si>
   <si>
@@ -65,6 +59,12 @@
   </si>
   <si>
     <t>TargetPriceChange</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>HOLD</t>
   </si>
 </sst>
 </file>
@@ -424,53 +424,53 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>29</v>
@@ -487,19 +487,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1">
         <v>29</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1">
         <v>23.88</v>
@@ -519,10 +519,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>7.3</v>
@@ -531,19 +531,19 @@
         <v>-20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1">
         <v>7.3</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M3" s="1">
         <v>6.22</v>
@@ -563,10 +563,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>27</v>
@@ -575,19 +575,19 @@
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1">
         <v>27</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M4" s="1">
         <v>23</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>13.5</v>
@@ -619,19 +619,19 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1">
         <v>13.5</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M5" s="1">
         <v>11.2</v>
